--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_3.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49449646-ECFB-8048-A5C6-EDB9C825F6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2F3928-E783-1947-AFAF-373D28BDF708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="740" windowWidth="20520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="907">
   <si>
     <t>record_id</t>
   </si>
@@ -2743,6 +2743,9 @@
   </si>
   <si>
     <t>recoding_check</t>
+  </si>
+  <si>
+    <t>finished</t>
   </si>
 </sst>
 </file>
@@ -3006,10 +3009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE101"/>
+  <dimension ref="A1:AF101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F73" zoomScale="125" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="Z98" sqref="Z98"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="125" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="AF101" sqref="AF101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3019,10 +3022,10 @@
     <col min="10" max="12" width="9.33203125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="9.33203125" customWidth="1"/>
     <col min="14" max="22" width="9.33203125" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="19" customWidth="1"/>
+    <col min="30" max="31" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3113,11 +3116,14 @@
       <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3137</v>
       </c>
@@ -3187,8 +3193,11 @@
       <c r="Y2" t="s">
         <v>44</v>
       </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>8594</v>
       </c>
@@ -3261,8 +3270,11 @@
       <c r="Y3" t="s">
         <v>44</v>
       </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3000</v>
       </c>
@@ -3330,11 +3342,14 @@
         <v>905</v>
       </c>
       <c r="AD4" s="3"/>
-      <c r="AE4" t="s">
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>7732</v>
       </c>
@@ -3389,8 +3404,11 @@
       <c r="Y5" t="s">
         <v>44</v>
       </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1721</v>
       </c>
@@ -3460,8 +3478,11 @@
       <c r="Y6" t="s">
         <v>44</v>
       </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6790</v>
       </c>
@@ -3529,11 +3550,14 @@
         <v>905</v>
       </c>
       <c r="AD7" s="3"/>
-      <c r="AE7" t="s">
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9233</v>
       </c>
@@ -3609,8 +3633,11 @@
       <c r="Y8" t="s">
         <v>44</v>
       </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10104</v>
       </c>
@@ -3683,8 +3710,11 @@
       <c r="Y9" t="s">
         <v>44</v>
       </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>176</v>
       </c>
@@ -3754,8 +3784,11 @@
       <c r="Y10" t="s">
         <v>44</v>
       </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9325</v>
       </c>
@@ -3819,8 +3852,11 @@
       <c r="Y11" t="s">
         <v>44</v>
       </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9005</v>
       </c>
@@ -3891,11 +3927,14 @@
         <v>905</v>
       </c>
       <c r="AD12" s="3"/>
-      <c r="AE12" t="s">
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1373</v>
       </c>
@@ -3965,8 +4004,11 @@
       <c r="Y13" t="s">
         <v>44</v>
       </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3055</v>
       </c>
@@ -4033,8 +4075,11 @@
       <c r="Y14" t="s">
         <v>44</v>
       </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3128</v>
       </c>
@@ -4107,8 +4152,11 @@
       <c r="Y15" t="s">
         <v>44</v>
       </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>9431</v>
       </c>
@@ -4178,8 +4226,11 @@
       <c r="Y16" t="s">
         <v>44</v>
       </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>9214</v>
       </c>
@@ -4240,8 +4291,11 @@
       <c r="Y17" t="s">
         <v>44</v>
       </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>7925</v>
       </c>
@@ -4321,11 +4375,14 @@
         <v>905</v>
       </c>
       <c r="AD18" s="3"/>
-      <c r="AE18" t="s">
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>8586</v>
       </c>
@@ -4405,11 +4462,14 @@
         <v>905</v>
       </c>
       <c r="AD19" s="3"/>
-      <c r="AE19" t="s">
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>7908</v>
       </c>
@@ -4482,8 +4542,11 @@
       <c r="Y20" t="s">
         <v>44</v>
       </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6730</v>
       </c>
@@ -4553,8 +4616,11 @@
       <c r="Y21" t="s">
         <v>44</v>
       </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>667</v>
       </c>
@@ -4624,8 +4690,11 @@
       <c r="Y22" t="s">
         <v>44</v>
       </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>563</v>
       </c>
@@ -4705,11 +4774,14 @@
         <v>902</v>
       </c>
       <c r="AD23" s="3"/>
-      <c r="AE23" t="s">
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1884</v>
       </c>
@@ -4776,8 +4848,11 @@
       <c r="Y24" t="s">
         <v>44</v>
       </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4462</v>
       </c>
@@ -4838,8 +4913,11 @@
       <c r="Y25" t="s">
         <v>44</v>
       </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>8180</v>
       </c>
@@ -4909,8 +4987,11 @@
       <c r="Y26" t="s">
         <v>44</v>
       </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2248</v>
       </c>
@@ -4971,8 +5052,11 @@
       <c r="Y27" t="s">
         <v>44</v>
       </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>8610</v>
       </c>
@@ -5045,8 +5129,11 @@
       <c r="Y28" t="s">
         <v>44</v>
       </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2122</v>
       </c>
@@ -5116,8 +5203,11 @@
       <c r="Y29" t="s">
         <v>44</v>
       </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>8558</v>
       </c>
@@ -5187,8 +5277,11 @@
       <c r="Y30" t="s">
         <v>44</v>
       </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2092</v>
       </c>
@@ -5261,8 +5354,11 @@
       <c r="Y31" t="s">
         <v>44</v>
       </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6029</v>
       </c>
@@ -5329,8 +5425,11 @@
       <c r="Y32" t="s">
         <v>44</v>
       </c>
+      <c r="AE32">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5300</v>
       </c>
@@ -5397,11 +5496,14 @@
       <c r="AC33" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="AE33" t="s">
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>6461</v>
       </c>
@@ -5468,8 +5570,11 @@
       <c r="AA34">
         <v>1</v>
       </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>6602</v>
       </c>
@@ -5542,8 +5647,11 @@
       <c r="X35" t="s">
         <v>337</v>
       </c>
+      <c r="AE35">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9346</v>
       </c>
@@ -5616,8 +5724,11 @@
       <c r="Y36" t="s">
         <v>44</v>
       </c>
+      <c r="AE36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>7075</v>
       </c>
@@ -5687,8 +5798,11 @@
       <c r="Y37" t="s">
         <v>44</v>
       </c>
+      <c r="AE37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>8789</v>
       </c>
@@ -5764,11 +5878,14 @@
       <c r="AC38" t="s">
         <v>905</v>
       </c>
-      <c r="AE38" t="s">
+      <c r="AE38">
+        <v>1</v>
+      </c>
+      <c r="AF38" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>8360</v>
       </c>
@@ -5829,8 +5946,11 @@
       <c r="X39" t="s">
         <v>71</v>
       </c>
+      <c r="AE39">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>792</v>
       </c>
@@ -5897,8 +6017,11 @@
       <c r="Y40" t="s">
         <v>44</v>
       </c>
+      <c r="AE40">
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>984</v>
       </c>
@@ -5965,8 +6088,11 @@
       <c r="Y41" t="s">
         <v>44</v>
       </c>
+      <c r="AE41">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1046</v>
       </c>
@@ -6039,8 +6165,11 @@
       <c r="Y42" t="s">
         <v>44</v>
       </c>
+      <c r="AE42">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>9809</v>
       </c>
@@ -6104,8 +6233,11 @@
       <c r="Y43" t="s">
         <v>44</v>
       </c>
+      <c r="AE43">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>10151</v>
       </c>
@@ -6178,8 +6310,11 @@
       <c r="Y44" t="s">
         <v>44</v>
       </c>
+      <c r="AE44">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>8280</v>
       </c>
@@ -6252,8 +6387,11 @@
       <c r="Y45" t="s">
         <v>44</v>
       </c>
+      <c r="AE45">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>9273</v>
       </c>
@@ -6332,11 +6470,14 @@
       <c r="AC46" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="AE46" t="s">
+      <c r="AE46">
+        <v>1</v>
+      </c>
+      <c r="AF46" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>10069</v>
       </c>
@@ -6406,11 +6547,14 @@
       <c r="AC47" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="AE47" t="s">
+      <c r="AE47">
+        <v>1</v>
+      </c>
+      <c r="AF47" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>9524</v>
       </c>
@@ -6480,11 +6624,14 @@
       <c r="AC48" t="s">
         <v>902</v>
       </c>
-      <c r="AE48" t="s">
+      <c r="AE48">
+        <v>1</v>
+      </c>
+      <c r="AF48" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>7760</v>
       </c>
@@ -6545,8 +6692,11 @@
       <c r="Y49" t="s">
         <v>44</v>
       </c>
+      <c r="AE49">
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>9317</v>
       </c>
@@ -6619,8 +6769,11 @@
       <c r="Y50" t="s">
         <v>44</v>
       </c>
+      <c r="AE50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>9628</v>
       </c>
@@ -6693,8 +6846,11 @@
       <c r="Y51" t="s">
         <v>44</v>
       </c>
+      <c r="AE51">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>6551</v>
       </c>
@@ -6755,8 +6911,11 @@
       <c r="Y52" t="s">
         <v>44</v>
       </c>
+      <c r="AE52">
+        <v>1</v>
+      </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>10690</v>
       </c>
@@ -6829,8 +6988,11 @@
       <c r="Y53" t="s">
         <v>44</v>
       </c>
+      <c r="AE53">
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>10323</v>
       </c>
@@ -6903,8 +7065,11 @@
       <c r="Y54" t="s">
         <v>44</v>
       </c>
+      <c r="AE54">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>7018</v>
       </c>
@@ -6977,8 +7142,11 @@
       <c r="Y55" t="s">
         <v>44</v>
       </c>
+      <c r="AE55">
+        <v>1</v>
+      </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3375</v>
       </c>
@@ -7048,8 +7216,11 @@
       <c r="Y56" t="s">
         <v>44</v>
       </c>
+      <c r="AE56">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>3808</v>
       </c>
@@ -7110,8 +7281,11 @@
       <c r="Y57" t="s">
         <v>44</v>
       </c>
+      <c r="AE57">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>7397</v>
       </c>
@@ -7181,8 +7355,11 @@
       <c r="Y58" t="s">
         <v>44</v>
       </c>
+      <c r="AE58">
+        <v>1</v>
+      </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>9971</v>
       </c>
@@ -7255,8 +7432,11 @@
       <c r="Y59" t="s">
         <v>44</v>
       </c>
+      <c r="AE59">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1142</v>
       </c>
@@ -7317,8 +7497,11 @@
       <c r="Y60" t="s">
         <v>44</v>
       </c>
+      <c r="AE60">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>9833</v>
       </c>
@@ -7391,8 +7574,11 @@
       <c r="Y61" t="s">
         <v>44</v>
       </c>
+      <c r="AE61">
+        <v>1</v>
+      </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3056</v>
       </c>
@@ -7459,8 +7645,11 @@
       <c r="Y62" t="s">
         <v>44</v>
       </c>
+      <c r="AE62">
+        <v>1</v>
+      </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>10411</v>
       </c>
@@ -7521,8 +7710,11 @@
       <c r="Y63" t="s">
         <v>44</v>
       </c>
+      <c r="AE63">
+        <v>1</v>
+      </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>5753</v>
       </c>
@@ -7592,8 +7784,11 @@
       <c r="Y64" t="s">
         <v>44</v>
       </c>
+      <c r="AE64">
+        <v>1</v>
+      </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>8780</v>
       </c>
@@ -7669,8 +7864,11 @@
       <c r="Y65" t="s">
         <v>44</v>
       </c>
+      <c r="AE65">
+        <v>1</v>
+      </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>10686</v>
       </c>
@@ -7743,8 +7941,11 @@
       <c r="Y66" t="s">
         <v>44</v>
       </c>
+      <c r="AE66">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>2109</v>
       </c>
@@ -7814,8 +8015,11 @@
       <c r="Y67" t="s">
         <v>44</v>
       </c>
+      <c r="AE67">
+        <v>1</v>
+      </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>9278</v>
       </c>
@@ -7876,8 +8080,11 @@
       <c r="Y68" t="s">
         <v>44</v>
       </c>
+      <c r="AE68">
+        <v>1</v>
+      </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>2316</v>
       </c>
@@ -7947,8 +8154,11 @@
       <c r="Y69" t="s">
         <v>44</v>
       </c>
+      <c r="AE69">
+        <v>1</v>
+      </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>9336</v>
       </c>
@@ -8024,8 +8234,11 @@
       <c r="Y70" t="s">
         <v>44</v>
       </c>
+      <c r="AE70">
+        <v>1</v>
+      </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>249</v>
       </c>
@@ -8086,8 +8299,11 @@
       <c r="Y71" t="s">
         <v>44</v>
       </c>
+      <c r="AE71">
+        <v>1</v>
+      </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>139</v>
       </c>
@@ -8160,8 +8376,11 @@
       <c r="Y72" t="s">
         <v>44</v>
       </c>
+      <c r="AE72">
+        <v>1</v>
+      </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>5371</v>
       </c>
@@ -8222,8 +8441,11 @@
       <c r="Y73" t="s">
         <v>44</v>
       </c>
+      <c r="AE73">
+        <v>1</v>
+      </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>9355</v>
       </c>
@@ -8299,11 +8521,14 @@
       <c r="AC74" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="AE74" t="s">
+      <c r="AE74">
+        <v>1</v>
+      </c>
+      <c r="AF74" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>3483</v>
       </c>
@@ -8367,8 +8592,11 @@
       <c r="Y75" t="s">
         <v>44</v>
       </c>
+      <c r="AE75">
+        <v>1</v>
+      </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>9836</v>
       </c>
@@ -8447,11 +8675,14 @@
       <c r="AC76" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="AE76" t="s">
+      <c r="AE76">
+        <v>1</v>
+      </c>
+      <c r="AF76" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>10420</v>
       </c>
@@ -8524,8 +8755,11 @@
       <c r="Y77" t="s">
         <v>44</v>
       </c>
+      <c r="AE77">
+        <v>1</v>
+      </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>7807</v>
       </c>
@@ -8607,11 +8841,14 @@
       <c r="AC78" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="AE78" t="s">
+      <c r="AE78">
+        <v>1</v>
+      </c>
+      <c r="AF78" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>628</v>
       </c>
@@ -8684,8 +8921,11 @@
       <c r="Y79" t="s">
         <v>44</v>
       </c>
+      <c r="AE79">
+        <v>1</v>
+      </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>8679</v>
       </c>
@@ -8761,8 +9001,11 @@
       <c r="Y80" t="s">
         <v>44</v>
       </c>
+      <c r="AE80">
+        <v>1</v>
+      </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>7178</v>
       </c>
@@ -8814,8 +9057,11 @@
       <c r="Y81" t="s">
         <v>44</v>
       </c>
+      <c r="AE81">
+        <v>1</v>
+      </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4052</v>
       </c>
@@ -8888,8 +9134,11 @@
       <c r="Y82" t="s">
         <v>44</v>
       </c>
+      <c r="AE82">
+        <v>1</v>
+      </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>7610</v>
       </c>
@@ -8953,8 +9202,11 @@
       <c r="Y83" t="s">
         <v>44</v>
       </c>
+      <c r="AE83">
+        <v>1</v>
+      </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>3384</v>
       </c>
@@ -9024,8 +9276,11 @@
       <c r="Y84" t="s">
         <v>44</v>
       </c>
+      <c r="AE84">
+        <v>1</v>
+      </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>6403</v>
       </c>
@@ -9089,8 +9344,11 @@
       <c r="Y85" t="s">
         <v>44</v>
       </c>
+      <c r="AE85">
+        <v>1</v>
+      </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>6576</v>
       </c>
@@ -9148,8 +9406,11 @@
       <c r="Y86" t="s">
         <v>44</v>
       </c>
+      <c r="AE86">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>9307</v>
       </c>
@@ -9207,8 +9468,11 @@
       <c r="Y87" t="s">
         <v>44</v>
       </c>
+      <c r="AE87">
+        <v>1</v>
+      </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>1083</v>
       </c>
@@ -9287,11 +9551,14 @@
       <c r="AC88" t="s">
         <v>902</v>
       </c>
-      <c r="AE88" t="s">
+      <c r="AE88">
+        <v>1</v>
+      </c>
+      <c r="AF88" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>8231</v>
       </c>
@@ -9361,8 +9628,11 @@
       <c r="Y89" t="s">
         <v>44</v>
       </c>
+      <c r="AE89">
+        <v>1</v>
+      </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>7573</v>
       </c>
@@ -9435,8 +9705,11 @@
       <c r="Y90" t="s">
         <v>44</v>
       </c>
+      <c r="AE90">
+        <v>1</v>
+      </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>992</v>
       </c>
@@ -9506,8 +9779,11 @@
       <c r="Y91" t="s">
         <v>44</v>
       </c>
+      <c r="AE91">
+        <v>1</v>
+      </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>6353</v>
       </c>
@@ -9571,8 +9847,11 @@
       <c r="Y92" t="s">
         <v>44</v>
       </c>
+      <c r="AE92">
+        <v>1</v>
+      </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>7691</v>
       </c>
@@ -9636,8 +9915,11 @@
       <c r="Y93" t="s">
         <v>44</v>
       </c>
+      <c r="AE93">
+        <v>1</v>
+      </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>6579</v>
       </c>
@@ -9704,8 +9986,11 @@
       <c r="Y94" t="s">
         <v>44</v>
       </c>
+      <c r="AE94">
+        <v>1</v>
+      </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>8752</v>
       </c>
@@ -9772,8 +10057,11 @@
       <c r="Y95" t="s">
         <v>44</v>
       </c>
+      <c r="AE95">
+        <v>1</v>
+      </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2606</v>
       </c>
@@ -9840,8 +10128,11 @@
       <c r="Y96" t="s">
         <v>44</v>
       </c>
+      <c r="AE96">
+        <v>1</v>
+      </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2928</v>
       </c>
@@ -9911,8 +10202,11 @@
       <c r="Y97" t="s">
         <v>44</v>
       </c>
+      <c r="AE97">
+        <v>1</v>
+      </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>7458</v>
       </c>
@@ -9985,8 +10279,11 @@
       <c r="Y98" t="s">
         <v>44</v>
       </c>
+      <c r="AE98">
+        <v>1</v>
+      </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>7369</v>
       </c>
@@ -10053,8 +10350,11 @@
       <c r="Y99" t="s">
         <v>44</v>
       </c>
+      <c r="AE99">
+        <v>1</v>
+      </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>10611</v>
       </c>
@@ -10127,8 +10427,11 @@
       <c r="Y100" t="s">
         <v>44</v>
       </c>
+      <c r="AE100">
+        <v>1</v>
+      </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>7587</v>
       </c>
@@ -10188,6 +10491,9 @@
       </c>
       <c r="Y101" t="s">
         <v>44</v>
+      </c>
+      <c r="AE101">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
